--- a/branches_1.xlsx
+++ b/branches_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206FD77-098C-42C5-A79D-3B8C94F0CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F690E60-9099-4350-9258-24E81F3CD2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="3030" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="146">
   <si>
     <t>l</t>
   </si>
@@ -312,9 +312,6 @@
     <t>XHL</t>
   </si>
   <si>
-    <t>XHT</t>
-  </si>
-  <si>
     <t>trafo_id</t>
   </si>
   <si>
@@ -475,13 +472,16 @@
   </si>
   <si>
     <t>Ampacidade: https://www.hongdacable.com/xlpe-insulated-single-core-120mm2-aluminum-cable.html</t>
+  </si>
+  <si>
+    <t>XLT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +493,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -556,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -564,10 +570,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2550,7 +2553,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,8 +2583,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>127</v>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>87</v>
@@ -2592,7 +2595,7 @@
         <v>650</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>693</v>
@@ -2610,14 +2613,14 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2">
         <f>2000/3.281</f>
         <v>609.57025297165501</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2643,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="I3">
         <f>667/3.281</f>
@@ -2673,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="I4">
         <f>1333/3.281</f>
@@ -2703,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="I5">
         <f>1000/3.281</f>
@@ -2733,14 +2736,14 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="I6">
         <f>500/3.281</f>
         <v>152.39256324291375</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2765,15 +2768,15 @@
       <c r="G7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
+      <c r="H7">
+        <v>3.2</v>
       </c>
       <c r="I7">
         <f>500/3.281</f>
         <v>152.39256324291375</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2798,8 +2801,8 @@
       <c r="G8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
+      <c r="H8">
+        <v>3.2</v>
       </c>
       <c r="I8">
         <f>300/3.281</f>
@@ -2829,14 +2832,14 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="I9">
         <f>500/3.281</f>
         <v>152.39256324291375</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2861,15 +2864,15 @@
       <c r="G10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>21</v>
+      <c r="H10">
+        <v>1.3</v>
       </c>
       <c r="I10">
         <f>300/3.281</f>
         <v>91.435537945748237</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2894,15 +2897,15 @@
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>23</v>
+      <c r="H11">
+        <v>3</v>
       </c>
       <c r="I11">
         <f>300/3.281</f>
         <v>91.435537945748237</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,10 +2915,10 @@
       <c r="B12">
         <v>652</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1074</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>409.92</v>
       </c>
       <c r="E12">
@@ -2927,15 +2930,15 @@
       <c r="G12">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
-        <v>25</v>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12">
         <f>800/3.281</f>
         <v>243.82810118866198</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2961,17 +2964,18 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="I13">
         <f>500/3.281</f>
         <v>152.39256324291375</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
     <ignoredError sqref="I8:I9" formula="1"/>
@@ -3014,8 +3018,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>127</v>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>87</v>
@@ -3051,7 +3055,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3654,7 +3658,7 @@
         <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4356,45 +4360,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CC1A4E-D810-4FDC-B609-238E19A0E565}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>86</v>
       </c>
       <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>89</v>
@@ -4403,7 +4407,7 @@
         <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>90</v>
@@ -4414,10 +4418,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>82</v>
@@ -4441,10 +4445,10 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
         <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
       </c>
       <c r="L2">
         <v>0.1</v>
@@ -4464,10 +4468,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <v>633</v>
@@ -4491,10 +4495,10 @@
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L3">
         <v>0.55000000000000004</v>
@@ -4509,15 +4513,15 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>675</v>
@@ -4541,10 +4545,10 @@
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L4">
         <v>0.55000000000000004</v>
@@ -4559,15 +4563,15 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>675</v>
@@ -4591,10 +4595,10 @@
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L5">
         <v>0.55000000000000004</v>
@@ -4609,15 +4613,15 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6">
         <v>680</v>
@@ -4641,10 +4645,10 @@
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L6">
         <v>0.55000000000000004</v>
@@ -4659,15 +4663,15 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7">
         <v>671</v>
@@ -4691,10 +4695,10 @@
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7">
         <v>0.55000000000000004</v>
@@ -4709,12 +4713,12 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4759,12 +4763,12 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4809,12 +4813,12 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -4859,12 +4863,12 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -4909,12 +4913,12 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -4959,12 +4963,12 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -5009,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5021,78 +5025,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C060A65-8EAA-46FC-A766-01E69268679B}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>86</v>
       </c>
       <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
-        <v>99</v>
-      </c>
       <c r="J1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>124</v>
+      <c r="V1" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>87</v>
@@ -5100,7 +5104,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5109,7 +5113,7 @@
         <v>650</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>2.4</v>
@@ -5163,15 +5167,15 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="V2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5180,7 +5184,7 @@
         <v>650</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>2.4</v>
@@ -5234,15 +5238,15 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="V3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5251,7 +5255,7 @@
         <v>650</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>2.4</v>
@@ -5305,10 +5309,10 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="V4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/branches_1.xlsx
+++ b/branches_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F690E60-9099-4350-9258-24E81F3CD2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E0336-3C10-4DFE-967F-43177C09A70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,18 +501,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -573,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2553,7 +2547,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,16 +2586,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s">
         <v>104</v>
       </c>
       <c r="C2">
-        <v>693</v>
+        <v>4.3157000000000001E-2</v>
       </c>
       <c r="D2">
-        <v>2035.8</v>
+        <v>0.130493</v>
       </c>
       <c r="E2">
         <v>730</v>
@@ -2631,10 +2625,10 @@
         <v>670</v>
       </c>
       <c r="C3">
-        <v>231.1155</v>
+        <v>1.4393E-2</v>
       </c>
       <c r="D3">
-        <v>678.9393</v>
+        <v>4.3519000000000002E-2</v>
       </c>
       <c r="E3">
         <v>730</v>
@@ -2661,10 +2655,10 @@
         <v>671</v>
       </c>
       <c r="C4">
-        <v>461.88449999999989</v>
+        <v>2.8764000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>1356.8607</v>
+        <v>8.6972999999999995E-2</v>
       </c>
       <c r="E4">
         <v>730</v>
@@ -2691,10 +2685,10 @@
         <v>680</v>
       </c>
       <c r="C5">
-        <v>346.5</v>
+        <v>2.1578E-2</v>
       </c>
       <c r="D5">
-        <v>1017.9</v>
+        <v>6.5245999999999998E-2</v>
       </c>
       <c r="E5">
         <v>730</v>
@@ -2721,10 +2715,10 @@
         <v>633</v>
       </c>
       <c r="C6">
-        <v>376.3</v>
+        <v>2.3608000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>590.70000000000005</v>
+        <v>3.7782999999999997E-2</v>
       </c>
       <c r="E6">
         <v>357</v>
@@ -2754,10 +2748,10 @@
         <v>645</v>
       </c>
       <c r="C7">
-        <v>661.90000000000009</v>
+        <v>6.2812999999999994E-2</v>
       </c>
       <c r="D7">
-        <v>678.45</v>
+        <v>6.4015000000000002E-2</v>
       </c>
       <c r="E7">
         <v>242</v>
@@ -2787,10 +2781,10 @@
         <v>646</v>
       </c>
       <c r="C8">
-        <v>397.14</v>
+        <v>3.7687999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>407.07</v>
+        <v>3.8408999999999999E-2</v>
       </c>
       <c r="E8">
         <v>242</v>
@@ -2817,10 +2811,10 @@
         <v>675</v>
       </c>
       <c r="C9">
-        <v>395.8605</v>
+        <v>2.4885000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>219.17599999999999</v>
+        <v>1.3398999999999999E-2</v>
       </c>
       <c r="E9">
         <v>215</v>
@@ -2850,10 +2844,10 @@
         <v>684</v>
       </c>
       <c r="C10">
-        <v>397.14</v>
+        <v>3.7687999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>407.07</v>
+        <v>3.8408999999999999E-2</v>
       </c>
       <c r="E10">
         <v>242</v>
@@ -2883,10 +2877,10 @@
         <v>611</v>
       </c>
       <c r="C11">
-        <v>398.76</v>
+        <v>7.5523000000000007E-2</v>
       </c>
       <c r="D11">
-        <v>404.25</v>
+        <v>7.6563000000000006E-2</v>
       </c>
       <c r="E11">
         <v>242</v>
@@ -2916,10 +2910,10 @@
         <v>652</v>
       </c>
       <c r="C12" s="4">
-        <v>1074</v>
+        <v>0.20341000000000001</v>
       </c>
       <c r="D12" s="4">
-        <v>409.92</v>
+        <v>7.7636999999999998E-2</v>
       </c>
       <c r="E12">
         <v>242</v>
@@ -2949,10 +2943,10 @@
         <v>692</v>
       </c>
       <c r="C13">
-        <v>671.25</v>
+        <v>0.12713099999999999</v>
       </c>
       <c r="D13">
-        <v>256.2</v>
+        <v>4.8522999999999997E-2</v>
       </c>
       <c r="E13">
         <v>242</v>
@@ -2988,7 +2982,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,10 +3027,10 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D2">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E2">
         <v>305</v>
@@ -3066,10 +3060,10 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D3">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E3">
         <v>305</v>
@@ -3096,10 +3090,10 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D4">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E4">
         <v>305</v>
@@ -3126,10 +3120,10 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D5">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E5">
         <v>305</v>
@@ -3156,10 +3150,10 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D6">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E6">
         <v>305</v>
@@ -3186,10 +3180,10 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D7">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E7">
         <v>305</v>
@@ -3216,10 +3210,10 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D8">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E8">
         <v>305</v>
@@ -3246,10 +3240,10 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D9">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E9">
         <v>305</v>
@@ -3276,10 +3270,10 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D10">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E10">
         <v>305</v>
@@ -3306,10 +3300,10 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D11">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E11">
         <v>305</v>
@@ -3336,10 +3330,10 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D12">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E12">
         <v>305</v>
@@ -3366,10 +3360,10 @@
         <v>40</v>
       </c>
       <c r="C13">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D13">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E13">
         <v>305</v>
@@ -3396,10 +3390,10 @@
         <v>42</v>
       </c>
       <c r="C14">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D14">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E14">
         <v>305</v>
@@ -3426,10 +3420,10 @@
         <v>43</v>
       </c>
       <c r="C15">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D15">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E15">
         <v>305</v>
@@ -3456,10 +3450,10 @@
         <v>44</v>
       </c>
       <c r="C16">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D16">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E16">
         <v>305</v>
@@ -3486,10 +3480,10 @@
         <v>45</v>
       </c>
       <c r="C17">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D17">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E17">
         <v>305</v>
@@ -3516,10 +3510,10 @@
         <v>47</v>
       </c>
       <c r="C18">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D18">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E18">
         <v>305</v>
@@ -3546,10 +3540,10 @@
         <v>48</v>
       </c>
       <c r="C19">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D19">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E19">
         <v>305</v>
@@ -3576,10 +3570,10 @@
         <v>49</v>
       </c>
       <c r="C20">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D20">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E20">
         <v>305</v>
@@ -3606,10 +3600,10 @@
         <v>50</v>
       </c>
       <c r="C21">
-        <v>5.7000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="D21">
-        <v>1.7949999999999999E-3</v>
+        <v>5.9800000000000001E-4</v>
       </c>
       <c r="E21">
         <v>305</v>
@@ -3636,7 +3630,7 @@
         <v>52</v>
       </c>
       <c r="C22">
-        <v>7.000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D22">
         <v>1.7849999999999999E-3</v>
@@ -4360,7 +4354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CC1A4E-D810-4FDC-B609-238E19A0E565}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -5025,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C060A65-8EAA-46FC-A766-01E69268679B}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/branches_1.xlsx
+++ b/branches_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E0336-3C10-4DFE-967F-43177C09A70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9381765-8573-402E-9E54-77649312B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36450" yWindow="3270" windowWidth="13605" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -567,7 +567,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2546,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C868E1FA-48FB-44D3-B9B5-0D214B99DDAB}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,10 +2908,10 @@
       <c r="B12">
         <v>652</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>0.20341000000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>7.7636999999999998E-2</v>
       </c>
       <c r="E12">
@@ -5019,7 +5018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C060A65-8EAA-46FC-A766-01E69268679B}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>

--- a/branches_1.xlsx
+++ b/branches_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9381765-8573-402E-9E54-77649312B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD88C32-5AEF-4EAE-AAE4-722E146539B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36450" yWindow="3270" windowWidth="13605" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="150">
   <si>
     <t>l</t>
   </si>
@@ -475,6 +475,18 @@
   </si>
   <si>
     <t>XLT</t>
+  </si>
+  <si>
+    <t>Perdas Vazio kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perdas Totais kW </t>
+  </si>
+  <si>
+    <t>XLT = 1 para perdas: https://www.weg.net/catalog/weg/BR/pt/IP00/Transformador-Seco-500-0kVA-13-8-0-22kV-CST-IP-00-AN/p/14543073</t>
+  </si>
+  <si>
+    <t>XLT = 1 / Trafo monofasico, ligacao 0 porque não é importante. Perdas foram calculadas assumindo valores tipicos</t>
   </si>
 </sst>
 </file>
@@ -556,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -565,6 +577,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2545,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C868E1FA-48FB-44D3-B9B5-0D214B99DDAB}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,15 +4366,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CC1A4E-D810-4FDC-B609-238E19A0E565}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -4405,11 +4420,17 @@
       <c r="O1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4455,11 +4476,17 @@
       <c r="O2">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -4505,11 +4532,17 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>1.8</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -4555,11 +4588,17 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4">
+        <v>1.8</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -4605,11 +4644,17 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>1.8</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -4655,11 +4700,17 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>1.8</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -4705,11 +4756,17 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>1.8</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -4755,11 +4812,17 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>1.28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -4805,11 +4868,17 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q9">
+        <v>1.28</v>
+      </c>
+      <c r="R9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -4855,11 +4924,17 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q10">
+        <v>1.28</v>
+      </c>
+      <c r="R10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -4905,11 +4980,17 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>1.28</v>
+      </c>
+      <c r="R11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -4955,11 +5036,17 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>1.28</v>
+      </c>
+      <c r="R12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -5005,7 +5092,13 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>1.28</v>
+      </c>
+      <c r="R13" t="s">
         <v>137</v>
       </c>
     </row>

--- a/branches_1.xlsx
+++ b/branches_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD88C32-5AEF-4EAE-AAE4-722E146539B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B424A74-D38A-44AF-94BA-8E4C89841D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,9 +579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4369,7 +4367,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4420,10 +4418,10 @@
       <c r="O1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>147</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -4443,19 +4441,19 @@
       <c r="D2">
         <v>650</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>115</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>4.16</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>5000</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>0.27700000000000002</v>
       </c>
       <c r="J2" t="s">
@@ -4464,22 +4462,22 @@
       <c r="K2" t="s">
         <v>103</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>0.1</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>8</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>4</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
         <v>0</v>
       </c>
       <c r="R2" t="s">
@@ -4499,19 +4497,19 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>4.16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.48</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>500</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>5.0699999999999999E-3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J3" t="s">
@@ -4520,22 +4518,22 @@
       <c r="K3" t="s">
         <v>103</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
         <v>1.8</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>9</v>
       </c>
       <c r="R3" t="s">
@@ -4555,19 +4553,19 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>4.16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.48</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>500</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>5.0699999999999999E-3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J4" t="s">
@@ -4576,22 +4574,22 @@
       <c r="K4" t="s">
         <v>103</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
         <v>1.8</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>9</v>
       </c>
       <c r="R4" t="s">
@@ -4611,19 +4609,19 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>4.16</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.48</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>500</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>5.0699999999999999E-3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J5" t="s">
@@ -4632,22 +4630,22 @@
       <c r="K5" t="s">
         <v>103</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
         <v>1.8</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>9</v>
       </c>
       <c r="R5" t="s">
@@ -4667,19 +4665,19 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>4.16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.48</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>500</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>5.0699999999999999E-3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J6" t="s">
@@ -4688,22 +4686,22 @@
       <c r="K6" t="s">
         <v>103</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
         <v>1.8</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>9</v>
       </c>
       <c r="R6" t="s">
@@ -4723,19 +4721,19 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>4.16</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.48</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>500</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>5.0699999999999999E-3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>9.2160000000000002E-3</v>
       </c>
       <c r="J7" t="s">
@@ -4744,22 +4742,22 @@
       <c r="K7" t="s">
         <v>103</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <v>1</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
         <v>1.8</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>9</v>
       </c>
       <c r="R7" t="s">
@@ -4779,19 +4777,19 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>2.4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>150</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>5.6270000000000001E-3</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>1.0231000000000001E-2</v>
       </c>
       <c r="J8">
@@ -4800,22 +4798,22 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>1</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>1.28</v>
       </c>
       <c r="R8" t="s">
@@ -4835,19 +4833,19 @@
       <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>2.4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>150</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>5.6270000000000001E-3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>1.0231000000000001E-2</v>
       </c>
       <c r="J9">
@@ -4856,22 +4854,22 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>1.28</v>
       </c>
       <c r="R9" t="s">
@@ -4891,19 +4889,19 @@
       <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>2.4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>150</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>5.6270000000000001E-3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>1.0231000000000001E-2</v>
       </c>
       <c r="J10">
@@ -4912,22 +4910,22 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>1.28</v>
       </c>
       <c r="R10" t="s">
@@ -4947,19 +4945,19 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>2.4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>150</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>5.6270000000000001E-3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>1.0231000000000001E-2</v>
       </c>
       <c r="J11">
@@ -4968,22 +4966,22 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
         <v>1</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
         <v>1.28</v>
       </c>
       <c r="R11" t="s">
@@ -5003,19 +5001,19 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>2.4</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>150</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>5.6270000000000001E-3</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>1.0231000000000001E-2</v>
       </c>
       <c r="J12">
@@ -5024,22 +5022,22 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
         <v>1</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>1.28</v>
       </c>
       <c r="R12" t="s">
@@ -5059,19 +5057,19 @@
       <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>2.4</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>150</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>5.6270000000000001E-3</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>1.0231000000000001E-2</v>
       </c>
       <c r="J13">
@@ -5080,22 +5078,22 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
         <v>1</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>1.28</v>
       </c>
       <c r="R13" t="s">

--- a/branches_1.xlsx
+++ b/branches_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EdioD\PycharmProjects\variacao-tensao-frp\13Bus\23742222\pyomo_data\model_reg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B424A74-D38A-44AF-94BA-8E4C89841D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AD95A2-CA2C-42C9-907E-BEB7A1CBDA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4367,7 +4367,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
